--- a/html/SESSION資料結構.xlsx
+++ b/html/SESSION資料結構.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\專題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_icando\iwantto\區塊鏈\微學分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F6378F3-17FF-4ACA-930D-3F2D3683074F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43B66636-AB65-46C3-9063-7A9F6958057D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28215" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>SESSION欄位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,13 +99,45 @@
   </si>
   <si>
     <t>我的最愛 (like)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓select_course的資料(course)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入(login)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判斷是學生還是老師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各種unit_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數字0~N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存unit_course第N個學生的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第N個學生的stu_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個select_course的id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -496,16 +527,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C861617F-3153-4EDE-B242-6983D2B55B0F}">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="26.75" style="2" customWidth="1"/>
@@ -609,24 +640,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
